--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily/Desktop/Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035B61C-4ABD-5C4A-8A9B-A21FFAF1A6D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88DA14A-8946-B34E-841C-2F50C6A4263E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="900" windowWidth="27860" windowHeight="15580" activeTab="1" xr2:uid="{312584EE-7AE9-9B43-8B8E-9AD73A05DB45}"/>
+    <workbookView xWindow="1120" yWindow="460" windowWidth="30700" windowHeight="15580" activeTab="2" xr2:uid="{312584EE-7AE9-9B43-8B8E-9AD73A05DB45}"/>
   </bookViews>
   <sheets>
     <sheet name="oversample ensemble" sheetId="1" r:id="rId1"/>
-    <sheet name="SMOTE,ADASYN,Borderline" sheetId="2" r:id="rId2"/>
+    <sheet name="SMOTE,ADASYN,Borderline Random" sheetId="2" r:id="rId2"/>
+    <sheet name="SMOTE,ADASYN,Borderline 群中心" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="46">
   <si>
     <t xml:space="preserve">Random 50% SMOTE + RCSMOTE </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +152,62 @@
   </si>
   <si>
     <t>yeast6 排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statlog (Shuttle)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR 13.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haberman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR 2.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE : ADASYN 使用 smapling strategy 0.1 跟 0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE : ADASYN 使用 smapling strategy 各為 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料 pima</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群中心 k=1 SMOTE:ADASYN = 5:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群中心 k=1  SMOTE:ADASYN = 7:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群中心 k=1 SMOTE:ADASYN = 3:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小類群中心 k=1，SMOTE跟AD整體與群中心最近 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小類群中心 k=1，SMOTE跟 AD 個別與小類最近的 5:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMOTE:ADASYN = 5:5 cluster=2 （3:7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>無法 因為 IR 太小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,8 +312,16 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,7 +351,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -315,7 +392,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,8 +408,14 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -360,21 +443,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="4">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="20% - 輔色4" xfId="4" builtinId="42"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - 輔色1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - 輔色4" xfId="5" builtinId="42"/>
+    <cellStyle name="20% - 輔色5" xfId="6" builtinId="46"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="中等" xfId="2" builtinId="28"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
@@ -692,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B667462-9875-6546-A2BF-B061A115D5B6}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="44" customHeight="1"/>
@@ -708,12 +811,15 @@
     <col min="10" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4" ht="44" customHeight="1">
+    <row r="1" spans="1:4" ht="44" customHeight="1">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="3:4" ht="44" customHeight="1">
+    <row r="2" spans="1:4" ht="44" customHeight="1">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -721,7 +827,7 @@
         <v>0.89117647058823501</v>
       </c>
     </row>
-    <row r="3" spans="3:4" ht="44" customHeight="1">
+    <row r="3" spans="1:4" ht="44" customHeight="1">
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
@@ -729,7 +835,7 @@
         <v>0.95032679738561998</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="44" customHeight="1">
+    <row r="4" spans="1:4" ht="44" customHeight="1">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -737,7 +843,7 @@
         <v>0.90718954248366002</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="44" customHeight="1">
+    <row r="5" spans="1:4" ht="44" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
@@ -745,7 +851,7 @@
         <v>0.91633986928104505</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="44" customHeight="1">
+    <row r="6" spans="1:4" ht="44" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
@@ -753,7 +859,7 @@
         <v>0.90196078431372495</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="44" customHeight="1">
+    <row r="7" spans="1:4" ht="44" customHeight="1">
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
@@ -761,7 +867,7 @@
         <v>0.89673202614379</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="44" customHeight="1">
+    <row r="8" spans="1:4" ht="44" customHeight="1">
       <c r="C8" s="2" t="s">
         <v>7</v>
       </c>
@@ -769,7 +875,7 @@
         <v>0.89368191721132895</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="44" customHeight="1">
+    <row r="9" spans="1:4" ht="44" customHeight="1">
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
@@ -777,13 +883,13 @@
         <v>0.89299719887955098</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="44" customHeight="1">
+    <row r="11" spans="1:4" ht="44" customHeight="1">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="3:4" ht="44" customHeight="1">
+    <row r="12" spans="1:4" ht="44" customHeight="1">
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
@@ -791,7 +897,7 @@
         <v>0.95032679738561998</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="44" customHeight="1">
+    <row r="13" spans="1:4" ht="44" customHeight="1">
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
@@ -799,7 +905,7 @@
         <v>0.91633986928104505</v>
       </c>
     </row>
-    <row r="14" spans="3:4" ht="44" customHeight="1">
+    <row r="14" spans="1:4" ht="44" customHeight="1">
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
@@ -807,7 +913,7 @@
         <v>0.90718954248366002</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="44" customHeight="1">
+    <row r="15" spans="1:4" ht="44" customHeight="1">
       <c r="C15" s="2" t="s">
         <v>5</v>
       </c>
@@ -815,7 +921,7 @@
         <v>0.90196078431372495</v>
       </c>
     </row>
-    <row r="16" spans="3:4" ht="44" customHeight="1">
+    <row r="16" spans="1:4" ht="44" customHeight="1">
       <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
@@ -858,197 +964,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A90059-4040-E34D-99AE-B6CA45DF42C9}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.83203125" defaultRowHeight="42" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="58.6640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="29.83203125" style="4"/>
-    <col min="4" max="4" width="56.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="29.83203125" style="4"/>
+    <col min="4" max="4" width="50.1640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="29.83203125" style="4"/>
+    <col min="10" max="16384" width="29.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1">
+    <row r="1" spans="1:13" ht="42" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
+      <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1">
-      <c r="B2" s="12" t="s">
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="42" customHeight="1">
+      <c r="B2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="42" customHeight="1">
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="42" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42" customHeight="1">
+    <row r="4" spans="1:13" ht="42" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="4">
         <v>0.79770531400966105</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="4">
         <v>0.63629468014386203</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="42" customHeight="1">
+      <c r="G4" s="4">
+        <v>0.61493464052287505</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.83833333333333304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="42" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>0.82201518288474795</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
         <v>0.73249441764535395</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="42" customHeight="1">
+      <c r="G5" s="4">
+        <v>0.62979575163398605</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="42" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>0.83497239475500296</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="4">
         <v>0.81890313123220804</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="42" customHeight="1">
+      <c r="G6" s="4">
+        <v>0.67660130718954203</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.90416666666666601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="42" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>0.79794685990338099</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="4">
         <v>0.63629825966897902</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="42" customHeight="1">
+      <c r="G7" s="16">
+        <v>0.63572712418300603</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="42" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>0.82600069013112398</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D8" s="4">
         <v>0.84471593911398202</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
+      <c r="G8" s="16">
+        <v>0.66072712418300605</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="42" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="8">
         <v>0.81959972394754999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4">
         <v>0.82270881654246197</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1">
+      <c r="K9" s="4">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="42" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="8">
         <v>0.823174603174603</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4">
         <v>0.80755083777933001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1">
+      <c r="K10" s="4">
+        <v>0.958666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="42" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>0.825261674718196</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4">
         <v>0.78729592445497398</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1">
+      <c r="K11" s="4">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="42" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="4">
         <v>0.82830400276052396</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4">
         <v>0.79468078306373202</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1">
+    <row r="13" spans="1:13" ht="42" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4">
         <v>0.82781995245763296</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4">
         <v>0.80406569280856299</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1">
+    <row r="14" spans="1:13" ht="42" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="4">
         <v>0.82889061421670096</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4">
         <v>0.80886148374156897</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1">
+    <row r="15" spans="1:13" ht="42" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="8">
         <v>0.82971485036702397</v>
       </c>
-      <c r="E15" s="8">
+      <c r="D15" s="8">
         <v>0.81184421030075304</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1">
+    <row r="16" spans="1:13" ht="42" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>0.82915085116172005</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D16" s="4">
         <v>0.81438312850495098</v>
       </c>
     </row>
@@ -1057,10 +1216,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5" ht="42" customHeight="1">
       <c r="A21" s="4" t="s">
@@ -1248,11 +1407,378 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D21:E33">
     <sortCondition descending="1" ref="E21:E33"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52920F77-CE65-8943-8FAA-1D2441FEE5B7}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="29.83203125" defaultRowHeight="45" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="77.5" style="4" customWidth="1"/>
+    <col min="2" max="3" width="29.83203125" style="4"/>
+    <col min="4" max="4" width="50.1640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="29.83203125" style="4"/>
+    <col min="10" max="16384" width="29.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" ht="45" customHeight="1">
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" customHeight="1">
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="45" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.79770531400966105</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.63629468014386203</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.61493464052287505</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.83833333333333304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="45" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.82201518288474795</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.73249441764535395</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.62979575163398605</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.83497239475500296</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.81890313123220804</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.67660130718954203</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.90416666666666601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.79794685990338099</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.63629825966897902</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.63572712418300603</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="45" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.82600069013112398</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.84471593911398202</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.66072712418300605</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.81959972394754999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.82270881654246197</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.65231481481481401</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.823174603174603</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.80755083777933001</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.65664011437908498</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0.958666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.825261674718196</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.78729592445497398</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.65727532679738498</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.82830400276052396</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.79468078306373202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="45" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.82781995245763296</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.80406569280856299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.82889061421670096</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.80886148374156897</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.82971485036702397</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.81184421030075304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.82915085116172005</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.81438312850495098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="D17" s="4">
+        <v>0.83869740379148905</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.80516660007785701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.82139734054541302</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.80520021529482899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.85742721632263397</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.80612691436727901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.83332789302333499</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.797566290384219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.81501772717200405</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0.79906098715348195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.82897821603286304</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.86755507070982496</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0.79868042643302495</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.86209913580036401</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0.801111111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" customHeight="1">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" customHeight="1">
+      <c r="B31" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>